--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-8.691786611083387</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.44644033156627</v>
+        <v>-21.44711012550703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01257927996463667</v>
+        <v>-0.00437579584982437</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.066560700253502</v>
+        <v>-9.094745824841267</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.116562219725896</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.58618281484329</v>
+        <v>-21.58901354981924</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1164416112532488</v>
+        <v>-0.133558024294318</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.545167673924491</v>
+        <v>-8.577660013562006</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.503722449880772</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.79118376177991</v>
+        <v>-21.78434893017996</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2834060847652612</v>
+        <v>-0.3012705158569684</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.442562086808547</v>
+        <v>-8.472037909209176</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.796185594355139</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.91155599985022</v>
+        <v>-21.91088131690258</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.327104028141747</v>
+        <v>-0.3436924284411894</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.900053439821328</v>
+        <v>-7.918509440743933</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.998581094870822</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.87089901874495</v>
+        <v>-21.86390773892526</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4538613091802509</v>
+        <v>-0.4689487843715504</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.199942767472241</v>
+        <v>-7.223796231975919</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.08623303824946</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.13750634121156</v>
+        <v>-22.13476360835922</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5883725551096818</v>
+        <v>-0.6088330488477209</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.590195609044343</v>
+        <v>-6.610998333263066</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.05772493759659</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.51903465909187</v>
+        <v>-22.51851153535711</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7580846504809005</v>
+        <v>-0.776276645032691</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.145569768539629</v>
+        <v>-6.163766652098287</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.902481772120584</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.77182564815257</v>
+        <v>-22.77417726045556</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8999587407519053</v>
+        <v>-0.9180920672212929</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.826923856981581</v>
+        <v>-5.836511199447601</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.609121131575009</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.2206315895285</v>
+        <v>-23.21508256673455</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9904200348104326</v>
+        <v>-1.009853837106419</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.49989818765364</v>
+        <v>-5.507226808947146</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.177878793358873</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.63139616847296</v>
+        <v>-23.62237106179663</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.25475885809079</v>
+        <v>-1.277878971564431</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.149214614096698</v>
+        <v>-5.142335781434949</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.609549784706664</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.098271879229</v>
+        <v>-24.08614714219905</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.196609010415704</v>
+        <v>-1.215221459558049</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.988747630710815</v>
+        <v>-4.981898132090268</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.905638380815107</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.67329731088807</v>
+        <v>-24.65576533226331</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.118761354073817</v>
+        <v>-1.139837862677087</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.919529071489034</v>
+        <v>-4.916013875551722</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.08942216908858</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.28203733390138</v>
+        <v>-25.26475469462684</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.052265971676907</v>
+        <v>-1.07766436235053</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.811389128599742</v>
+        <v>-4.80498941861095</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.180713438049564</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.88254915835768</v>
+        <v>-25.85931170871923</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.009105819055782</v>
+        <v>-1.033883305857306</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.817568833279522</v>
+        <v>-4.813300730284706</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.208823782695844</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.63608689774841</v>
+        <v>-26.61183742368851</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.933604886010014</v>
+        <v>-0.9571601210948102</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.780798612633455</v>
+        <v>-4.781439072533021</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.215880309736665</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.41390833424711</v>
+        <v>-27.3860776626572</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8134282082143777</v>
+        <v>-0.833526915444265</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.80609922316974</v>
+        <v>-4.807644149339685</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.236114723081124</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.29196907853817</v>
+        <v>-28.2695040919847</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6576840054619351</v>
+        <v>-0.6736563908961462</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.036146552285556</v>
+        <v>-5.043817404059745</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.311729434226849</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.94059361957178</v>
+        <v>-28.91175581256728</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3972661656888434</v>
+        <v>-0.4173893179530653</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.319268939948601</v>
+        <v>-5.334591087469512</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.479404274334205</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.37020043098133</v>
+        <v>-29.34237464839828</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1968266621590644</v>
+        <v>-0.2136741798224533</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.662971011699589</v>
+        <v>-5.679153624429077</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.7616943224341624</v>
       </c>
       <c r="E21" t="n">
-        <v>-29.97442790065648</v>
+        <v>-29.94485918712538</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2158006284016903</v>
+        <v>0.1936338712670979</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.011268749905476</v>
+        <v>-6.037307600478665</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.1871332471223072</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.50269487064037</v>
+        <v>-30.4762917890556</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2695845929446217</v>
+        <v>0.2554358070717698</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.267799829219371</v>
+        <v>-6.293198219892994</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2339832815487188</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.83118235302152</v>
+        <v>-30.79966781475739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5556746077758837</v>
+        <v>0.5418876084111836</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.586841750333639</v>
+        <v>-6.610436097473371</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.499649306337009</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.00650458377253</v>
+        <v>-30.97657652823671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7421755527280882</v>
+        <v>0.7260124960260674</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.829057817541206</v>
+        <v>-6.860880363237956</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6064140613785104</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.28730713767722</v>
+        <v>-31.25728619101093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9754594043898018</v>
+        <v>0.9622835308834661</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.898330155838524</v>
+        <v>-6.936063510837374</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5690032137308367</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.2108235142512</v>
+        <v>-31.18096879381838</v>
       </c>
       <c r="F26" t="n">
-        <v>1.034587053438271</v>
+        <v>1.019333352013497</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.04139227477819</v>
+        <v>-7.086781814530628</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3996676193738357</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.29553044722737</v>
+        <v>-31.26749443734905</v>
       </c>
       <c r="F27" t="n">
-        <v>1.270393632643313</v>
+        <v>1.254558139401376</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.291592090199429</v>
+        <v>-7.332165958187956</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.1163096508320046</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.11670035404935</v>
+        <v>-31.08684807811997</v>
       </c>
       <c r="F28" t="n">
-        <v>1.411578372946083</v>
+        <v>1.397747372519581</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.468642584877887</v>
+        <v>-7.518319783652609</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.2558340166045182</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.92344280160707</v>
+        <v>-30.89467099619528</v>
       </c>
       <c r="F29" t="n">
-        <v>1.430014817841219</v>
+        <v>1.414653558265372</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.774596634609424</v>
+        <v>-7.827456576854509</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.6968941693870113</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.78724973731542</v>
+        <v>-30.76026730841692</v>
       </c>
       <c r="F30" t="n">
-        <v>1.550479947042003</v>
+        <v>1.539919692209467</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.822469789850255</v>
+        <v>-7.876576428846403</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.180196172021975</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.5243165035093</v>
+        <v>-30.49472090044043</v>
       </c>
       <c r="F31" t="n">
-        <v>1.472290060219433</v>
+        <v>1.454029619571505</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.775857998381088</v>
+        <v>-7.82189288703996</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.683304356748419</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.09636706542764</v>
+        <v>-30.06642434287122</v>
       </c>
       <c r="F32" t="n">
-        <v>1.445121849059986</v>
+        <v>1.430621054692717</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.796054485748314</v>
+        <v>-7.840583560292175</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.187682761844306</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.62536258837249</v>
+        <v>-29.5961972179079</v>
       </c>
       <c r="F33" t="n">
-        <v>1.388345812314503</v>
+        <v>1.367787538439126</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.022366613617807</v>
+        <v>-8.062700920269855</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.671210633966902</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.04992159112973</v>
+        <v>-29.0264445801548</v>
       </c>
       <c r="F34" t="n">
-        <v>1.387294675838116</v>
+        <v>1.368237327070882</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.032232629475242</v>
+        <v>-8.080037338619936</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.122837645211053</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.55546943714085</v>
+        <v>-28.52637251277241</v>
       </c>
       <c r="F35" t="n">
-        <v>1.411319255582136</v>
+        <v>1.39037963917114</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.015360666777518</v>
+        <v>-8.057249677613244</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.531204018031031</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.93401310726669</v>
+        <v>-27.90558597683902</v>
       </c>
       <c r="F36" t="n">
-        <v>1.338277492990427</v>
+        <v>1.320153944534773</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.865473494251639</v>
+        <v>-7.899109861496014</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.886784171403399</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.3124809977861</v>
+        <v>-27.28779395761161</v>
       </c>
       <c r="F37" t="n">
-        <v>1.430420605411173</v>
+        <v>1.410434345339225</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.751329850929776</v>
+        <v>-7.782233263335545</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.187836581781929</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.73866803983002</v>
+        <v>-26.70732706130966</v>
       </c>
       <c r="F38" t="n">
-        <v>1.268858484487102</v>
+        <v>1.243191198435798</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.670617236563877</v>
+        <v>-7.693712905003183</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.430612939988062</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.99218024834138</v>
+        <v>-25.96023058846609</v>
       </c>
       <c r="F39" t="n">
-        <v>1.347141262440144</v>
+        <v>1.326763881818842</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.600068867474294</v>
+        <v>-7.612310940669049</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.614964019046929</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.38379223382248</v>
+        <v>-25.3564822414639</v>
       </c>
       <c r="F40" t="n">
-        <v>1.354010317088159</v>
+        <v>1.328680372510673</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.241856223342303</v>
+        <v>-7.248031039015217</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.746056376601478</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.82569743294354</v>
+        <v>-24.79646117187939</v>
       </c>
       <c r="F41" t="n">
-        <v>1.402186590754739</v>
+        <v>1.379946498517143</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.253961404344785</v>
+        <v>-7.253922292289849</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.825150278687849</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.15035935838911</v>
+        <v>-24.12532764323051</v>
       </c>
       <c r="F42" t="n">
-        <v>1.406523139845693</v>
+        <v>1.381667428934297</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.979546337911716</v>
+        <v>-6.976241369269681</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.860332474568129</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.46874379901756</v>
+        <v>-23.44732994894047</v>
       </c>
       <c r="F43" t="n">
-        <v>1.365186586785927</v>
+        <v>1.341944248140613</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.901156001807601</v>
+        <v>-6.889632612622282</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.864428790702175</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.80344774456778</v>
+        <v>-22.78376949192845</v>
       </c>
       <c r="F44" t="n">
-        <v>1.476523940166181</v>
+        <v>1.451682896275386</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.831551211043333</v>
+        <v>-6.817637097500093</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.844379010850326</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.97524998131238</v>
+        <v>-21.95508282798636</v>
       </c>
       <c r="F45" t="n">
-        <v>1.525863797467087</v>
+        <v>1.50066096706814</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.672541151703792</v>
+        <v>-6.654471382323673</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.815762649968004</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.46323895916098</v>
+        <v>-21.44296913669075</v>
       </c>
       <c r="F46" t="n">
-        <v>1.511030550632867</v>
+        <v>1.482258745221072</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.529395919647389</v>
+        <v>-6.513095970753094</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.792173580027034</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.79708732850949</v>
+        <v>-20.7710924789981</v>
       </c>
       <c r="F47" t="n">
-        <v>1.577501487995442</v>
+        <v>1.549389698510681</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.520986827836294</v>
+        <v>-6.505992243775466</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.780726894925608</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.15316601208185</v>
+        <v>-20.12739605688634</v>
       </c>
       <c r="F48" t="n">
-        <v>1.623472819565044</v>
+        <v>1.597649085293999</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.480178287518155</v>
+        <v>-6.461282275977529</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.796934786863557</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.41441751846354</v>
+        <v>-19.38414967695046</v>
       </c>
       <c r="F49" t="n">
-        <v>1.780898840679705</v>
+        <v>1.753295507909103</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.224981907078929</v>
+        <v>-6.21021221733398</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.847355263330447</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.0145847588735</v>
+        <v>-18.98146173735015</v>
       </c>
       <c r="F50" t="n">
-        <v>1.767708300152768</v>
+        <v>1.735827086373616</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.212534495595764</v>
+        <v>-6.199647073494576</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.935835940158034</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43736416313119</v>
+        <v>-18.40570784366791</v>
       </c>
       <c r="F51" t="n">
-        <v>1.727100209116173</v>
+        <v>1.696495026129285</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.279880565187518</v>
+        <v>-6.272292826530065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.073152374695013</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.96559455650136</v>
+        <v>-17.94375047381999</v>
       </c>
       <c r="F52" t="n">
-        <v>1.76334730602748</v>
+        <v>1.731123861767644</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.271197688991876</v>
+        <v>-6.26149301036105</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.254033148812787</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57888389134212</v>
+        <v>-17.55454641515862</v>
       </c>
       <c r="F53" t="n">
-        <v>1.857553579346064</v>
+        <v>1.82464567412486</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.189341047019119</v>
+        <v>-6.178423894685298</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.478059726192645</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.96204278395033</v>
+        <v>-16.93497235292822</v>
       </c>
       <c r="F54" t="n">
-        <v>1.908819705352535</v>
+        <v>1.875036667902152</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.178824793248385</v>
+        <v>-6.171911737538568</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.744477971846788</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.75282751309444</v>
+        <v>-16.73201501086198</v>
       </c>
       <c r="F55" t="n">
-        <v>1.895746500990404</v>
+        <v>1.86507287190738</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.38115634243566</v>
+        <v>-6.37359793781941</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.036593785252395</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.20285824162831</v>
+        <v>-16.18418223539669</v>
       </c>
       <c r="F56" t="n">
-        <v>1.938437308952305</v>
+        <v>1.911973114781695</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.302863786468884</v>
+        <v>-6.302575335063737</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.34818505885588</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.10778661409428</v>
+        <v>-16.08818658556482</v>
       </c>
       <c r="F57" t="n">
-        <v>1.982893048393163</v>
+        <v>1.955612390075778</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.443422733892689</v>
+        <v>-6.442547601663511</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.666927615246693</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90090828852077</v>
+        <v>-15.8869110618608</v>
       </c>
       <c r="F58" t="n">
-        <v>1.889385903056548</v>
+        <v>1.866358680713378</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.610162313088823</v>
+        <v>-6.610582767679378</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.974475764946411</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.64715905411416</v>
+        <v>-15.63410051677262</v>
       </c>
       <c r="F59" t="n">
-        <v>1.928253507648521</v>
+        <v>1.901344413853022</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.407767206812278</v>
+        <v>-6.40524447926895</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.265283202838051</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41473566766102</v>
+        <v>-15.40799861619841</v>
       </c>
       <c r="F60" t="n">
-        <v>1.983846404732212</v>
+        <v>1.955392384766766</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.426061870508274</v>
+        <v>-6.421695987376119</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.525374770135792</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29446609873491</v>
+        <v>-15.29377185975981</v>
       </c>
       <c r="F61" t="n">
-        <v>1.940842700330828</v>
+        <v>1.914446952256354</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.301137967044864</v>
+        <v>-6.294254245376247</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.745011321542772</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.24550758396962</v>
+        <v>-15.24818675973269</v>
       </c>
       <c r="F62" t="n">
-        <v>1.939185327002943</v>
+        <v>1.909479721279568</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.376194000465742</v>
+        <v>-6.367413344132762</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.925291829369417</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.18144692699244</v>
+        <v>-15.18762663167222</v>
       </c>
       <c r="F63" t="n">
-        <v>1.916123881611706</v>
+        <v>1.889346791001612</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.419730606615619</v>
+        <v>-6.407033855782241</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.055838737321828</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.21651088424195</v>
+        <v>-15.22436262927022</v>
       </c>
       <c r="F64" t="n">
-        <v>1.776567180595618</v>
+        <v>1.750264323651616</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.422175110049077</v>
+        <v>-6.40911168370068</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.136935393966226</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.27263668307413</v>
+        <v>-15.28614500904742</v>
       </c>
       <c r="F65" t="n">
-        <v>1.759778331014632</v>
+        <v>1.73000427919512</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.519701019030296</v>
+        <v>-6.508294966009784</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.171107906681739</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.27834704309469</v>
+        <v>-15.29558079230057</v>
       </c>
       <c r="F66" t="n">
-        <v>1.829001779243281</v>
+        <v>1.806395011490666</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.461903179849628</v>
+        <v>-6.454550113521788</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.151484956502202</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.16835416660284</v>
+        <v>-15.18769996677522</v>
       </c>
       <c r="F67" t="n">
-        <v>1.643693751966604</v>
+        <v>1.621844780278361</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.238871575587835</v>
+        <v>-6.224683677660048</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.081431614302684</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.29146424851862</v>
+        <v>-15.31612439915534</v>
       </c>
       <c r="F68" t="n">
-        <v>1.635798005876536</v>
+        <v>1.615909525941926</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.358891805163729</v>
+        <v>-6.343618547711487</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.960849819415359</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.20339367881802</v>
+        <v>-15.22925163613713</v>
       </c>
       <c r="F69" t="n">
-        <v>1.590320464000493</v>
+        <v>1.566070989940595</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.221559602272089</v>
+        <v>-6.219824004834334</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.783535761035452</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.25185840388975</v>
+        <v>-15.27829815302602</v>
       </c>
       <c r="F70" t="n">
-        <v>1.519131635011345</v>
+        <v>1.503232584680138</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.162197280894008</v>
+        <v>-6.154066862474328</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.553405604951057</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.28625745620536</v>
+        <v>-15.31629062538882</v>
       </c>
       <c r="F71" t="n">
-        <v>1.417298510980373</v>
+        <v>1.400573218488657</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.161351482706031</v>
+        <v>-6.156760705257998</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.267679080742202</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.39299914313071</v>
+        <v>-15.42414700587983</v>
       </c>
       <c r="F72" t="n">
-        <v>1.333843163762135</v>
+        <v>1.318227675829209</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.009738490756131</v>
+        <v>-6.004839705875483</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.921251535342738</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.51519498076239</v>
+        <v>-15.54652373676558</v>
       </c>
       <c r="F73" t="n">
-        <v>1.245650368889857</v>
+        <v>1.230230441231607</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.14878673505806</v>
+        <v>-6.14590222100658</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.521648893307009</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.61950194226802</v>
+        <v>-15.64737905942317</v>
       </c>
       <c r="F74" t="n">
-        <v>1.118922421892554</v>
+        <v>1.102485580805986</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.053519547249355</v>
+        <v>-6.052365741628763</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.067649494703737</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.88214916917242</v>
+        <v>-15.91469528788548</v>
       </c>
       <c r="F75" t="n">
-        <v>1.081565520422457</v>
+        <v>1.066834942732442</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.089399968645644</v>
+        <v>-6.088441723299729</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.562543568691541</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.9225079208588</v>
+        <v>-15.95534737998387</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8593894923623741</v>
+        <v>0.8385183220475142</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.235679054103739</v>
+        <v>-6.238006221372391</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.01788095707151</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.97063530445672</v>
+        <v>-16.00215962073458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.708504962435645</v>
+        <v>0.6918041149782636</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.18087817613249</v>
+        <v>-6.184921384811428</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.438774816379029</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.09881039748662</v>
+        <v>-16.12660440152504</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7229373107067779</v>
+        <v>0.7065786937300804</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.165169797069092</v>
+        <v>-6.169873021675064</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.83994182450096</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.238723996004</v>
+        <v>-16.27061009879002</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4500818374642546</v>
+        <v>0.4324960797639615</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.169833909620128</v>
+        <v>-6.173662001996923</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.237905807771336</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.69592436217042</v>
+        <v>-16.72488194984315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4268003867640057</v>
+        <v>0.4085937251916144</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.126512419772395</v>
+        <v>-6.137204677790338</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.643639198003194</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.15654703314367</v>
+        <v>-17.17728620027313</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2725571091197059</v>
+        <v>0.2557047024494501</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.224854792900389</v>
+        <v>-6.239174694013584</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.078930634698217</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.58654985410944</v>
+        <v>-17.60936196015047</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0400019888890336</v>
+        <v>-0.05455167332497248</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.275030670375537</v>
+        <v>-6.289096343131652</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.559661211333598</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.06495873206454</v>
+        <v>-18.08235870750389</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.05322186345717161</v>
+        <v>-0.07041650060811148</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.317530807069629</v>
+        <v>-6.33605525408837</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.09861708168006</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.85699740053223</v>
+        <v>-18.87313112319305</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1640654271438673</v>
+        <v>-0.1820911954621827</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.355454833336289</v>
+        <v>-6.380740776851972</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7175800495166803</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.55059591573459</v>
+        <v>-19.56618206962631</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3189198306465314</v>
+        <v>-0.3352491135820273</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.43961908655023</v>
+        <v>-6.466190838871912</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4257506225493964</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.19691773453388</v>
+        <v>-20.21342791072345</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4655362575784437</v>
+        <v>-0.4859918623096159</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.684866338015284</v>
+        <v>-6.716586214567828</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2357172816264493</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.96054149509105</v>
+        <v>-20.97783391237933</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5593074092858725</v>
+        <v>-0.5805208100814164</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.000803739769061</v>
+        <v>-7.032543172349073</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1571690641955458</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.79615099275669</v>
+        <v>-21.8174279506415</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6905039085595351</v>
+        <v>-0.7104168335284797</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.299707841598508</v>
+        <v>-7.338741672423956</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1897143114925187</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.78629710847864</v>
+        <v>-22.8084687546201</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8831796691846532</v>
+        <v>-0.9006823137682087</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.37011442948895</v>
+        <v>-7.41542085612465</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3372734568550448</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.84425863845157</v>
+        <v>-23.86469957616214</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.142438814330286</v>
+        <v>-1.157193837054635</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.752997002271394</v>
+        <v>-7.795247799615273</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.5929822705743391</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06041865262413</v>
+        <v>-25.07665504442915</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.083668062783101</v>
+        <v>-1.093758972956414</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.109117151464346</v>
+        <v>-8.15361200296014</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.9471394478948438</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.34345050272235</v>
+        <v>-26.36360787803464</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.313832728063723</v>
+        <v>-1.321259129494567</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.367422940270931</v>
+        <v>-8.408324371719541</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.392638216000623</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.58122726075698</v>
+        <v>-27.59743676302423</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.588096235283918</v>
+        <v>-1.599336062070956</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.664743003875495</v>
+        <v>-8.7028968134649</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.909106296552922</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.09638671239289</v>
+        <v>-29.11722854866655</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.854571554565117</v>
+        <v>-1.860536142942754</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.001395127724392</v>
+        <v>-9.041216088655414</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.483187691299658</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.74936726760713</v>
+        <v>-30.77532789407045</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.134080966153512</v>
+        <v>-2.137322377706277</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.270666958933466</v>
+        <v>-9.302621507815623</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.102700370667817</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.56779425970121</v>
+        <v>-32.5938844448465</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.179705178235562</v>
+        <v>-2.182335463929963</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.620201615876685</v>
+        <v>-9.649340096803497</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.739483006895065</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.30124786794488</v>
+        <v>-34.32947454909101</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.55432532941292</v>
+        <v>-2.556232042091017</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.985195312533087</v>
+        <v>-10.00878965967282</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.392937889181169</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.30296861648647</v>
+        <v>-36.33162553023688</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.956446144216675</v>
+        <v>-2.958787978505927</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.40040399871957</v>
+        <v>-10.41515902144392</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.028553359689399</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.36821712025674</v>
+        <v>-38.39148634843983</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.230562981230862</v>
+        <v>-3.23387772788663</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.73096930901916</v>
+        <v>-10.74062020857445</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.661015810360549</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.55633125559947</v>
+        <v>-40.58195454058897</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.590594335917345</v>
+        <v>-3.593366402810886</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.94922924257884</v>
+        <v>-10.96330958235556</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.240247347530568</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.45154498954531</v>
+        <v>-42.47620758468546</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.014339228093465</v>
+        <v>-4.010110237153583</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.20636166973737</v>
+        <v>-11.21659925011669</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.831704648969489</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.73427607478344</v>
+        <v>-44.76492036982526</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.259043799796292</v>
+        <v>-4.257459761571411</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.36353346249495</v>
+        <v>-11.37555064137383</v>
       </c>
     </row>
   </sheetData>
